--- a/input/multiple_layout.xlsx
+++ b/input/multiple_layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qianqiantong/PycharmProjects/LIFTS/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391C4F2E-6D35-CA4A-8EFF-FA607E83E27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC122DF-B164-A646-9AF1-323667A92FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="19420" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:J300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -456,10 +456,10 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -520,10 +520,10 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -552,10 +552,10 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -584,10 +584,10 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>7</v>
@@ -616,10 +616,10 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <v>8</v>
@@ -648,10 +648,10 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -680,10 +680,10 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9">
         <v>11</v>
@@ -712,10 +712,10 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>12</v>
@@ -744,10 +744,10 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <v>13</v>
@@ -776,10 +776,10 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <v>14</v>
@@ -808,10 +808,10 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13">
         <v>16</v>
@@ -840,10 +840,10 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <v>17</v>
@@ -872,10 +872,10 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <v>18</v>
@@ -904,10 +904,10 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16">
         <v>19</v>
@@ -936,10 +936,10 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17">
         <v>21</v>
@@ -968,10 +968,10 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18">
         <v>22</v>
@@ -1000,10 +1000,10 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19">
         <v>23</v>
@@ -1032,10 +1032,10 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <v>24</v>
@@ -1064,10 +1064,10 @@
         <v>3</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21">
         <v>17</v>
@@ -1096,10 +1096,10 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22">
         <v>18</v>
@@ -1128,10 +1128,10 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23">
         <v>19</v>
@@ -1160,10 +1160,10 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F24">
         <v>20</v>
@@ -1192,10 +1192,10 @@
         <v>3</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25">
         <v>21</v>
@@ -1224,10 +1224,10 @@
         <v>3</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26">
         <v>21</v>
@@ -1256,10 +1256,10 @@
         <v>3</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27">
         <v>22</v>
@@ -1288,10 +1288,10 @@
         <v>3</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28">
         <v>23</v>
@@ -1320,10 +1320,10 @@
         <v>3</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29">
         <v>24</v>
@@ -1352,10 +1352,10 @@
         <v>3</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30">
         <v>25</v>
@@ -1384,10 +1384,10 @@
         <v>3</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F31">
         <v>26</v>
@@ -1416,10 +1416,10 @@
         <v>3</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32">
         <v>26</v>
@@ -1448,10 +1448,10 @@
         <v>3</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F33">
         <v>27</v>
@@ -1480,10 +1480,10 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34">
         <v>28</v>
@@ -1512,10 +1512,10 @@
         <v>3</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35">
         <v>29</v>
@@ -1544,10 +1544,10 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F36">
         <v>30</v>
@@ -1576,10 +1576,10 @@
         <v>3</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F37">
         <v>31</v>
@@ -1608,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F38">
         <v>31</v>
@@ -1640,10 +1640,10 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F39">
         <v>32</v>
@@ -1672,10 +1672,10 @@
         <v>3</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40">
         <v>33</v>
@@ -1704,10 +1704,10 @@
         <v>3</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41">
         <v>34</v>
@@ -1736,10 +1736,10 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42">
         <v>26</v>
@@ -1768,10 +1768,10 @@
         <v>4</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F43">
         <v>27</v>
@@ -1800,10 +1800,10 @@
         <v>4</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F44">
         <v>27</v>
@@ -1832,10 +1832,10 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45">
         <v>28</v>
@@ -1864,10 +1864,10 @@
         <v>4</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F46">
         <v>29</v>
@@ -1896,10 +1896,10 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F47">
         <v>29</v>
@@ -1928,10 +1928,10 @@
         <v>4</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F48">
         <v>30</v>
@@ -1960,10 +1960,10 @@
         <v>4</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49">
         <v>31</v>
@@ -1992,10 +1992,10 @@
         <v>4</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F50">
         <v>31</v>
@@ -2024,10 +2024,10 @@
         <v>4</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51">
         <v>32</v>
@@ -2056,10 +2056,10 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F52">
         <v>32</v>
@@ -2088,10 +2088,10 @@
         <v>4</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F53">
         <v>33</v>
@@ -2120,10 +2120,10 @@
         <v>4</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F54">
         <v>34</v>
@@ -2152,10 +2152,10 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F55">
         <v>34</v>
@@ -2184,10 +2184,10 @@
         <v>4</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F56">
         <v>35</v>
@@ -2216,10 +2216,10 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F57">
         <v>36</v>
@@ -2248,10 +2248,10 @@
         <v>4</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F58">
         <v>36</v>
@@ -2280,10 +2280,10 @@
         <v>4</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F59">
         <v>37</v>
@@ -2312,10 +2312,10 @@
         <v>4</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F60">
         <v>37</v>
@@ -2344,10 +2344,10 @@
         <v>4</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F61">
         <v>38</v>
@@ -2376,10 +2376,10 @@
         <v>5</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F62">
         <v>31</v>
@@ -2408,10 +2408,10 @@
         <v>4</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F63">
         <v>39</v>
@@ -2440,10 +2440,10 @@
         <v>5</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F64">
         <v>32</v>
@@ -2472,10 +2472,10 @@
         <v>5</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F65">
         <v>33</v>
@@ -2504,10 +2504,10 @@
         <v>5</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F66">
         <v>33</v>
@@ -2536,10 +2536,10 @@
         <v>5</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F67">
         <v>34</v>
@@ -2568,10 +2568,10 @@
         <v>5</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F68">
         <v>34</v>
@@ -2600,10 +2600,10 @@
         <v>5</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F69">
         <v>35</v>
@@ -2632,10 +2632,10 @@
         <v>5</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F70">
         <v>35</v>
@@ -2664,10 +2664,10 @@
         <v>5</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F71">
         <v>36</v>
@@ -2696,10 +2696,10 @@
         <v>5</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F72">
         <v>36</v>
@@ -2728,10 +2728,10 @@
         <v>5</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F73">
         <v>37</v>
@@ -2760,10 +2760,10 @@
         <v>5</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F74">
         <v>37</v>
@@ -2792,10 +2792,10 @@
         <v>5</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F75">
         <v>38</v>
@@ -2824,10 +2824,10 @@
         <v>5</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F76">
         <v>38</v>
@@ -2856,10 +2856,10 @@
         <v>5</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F77">
         <v>39</v>
@@ -2888,10 +2888,10 @@
         <v>5</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F78">
         <v>39</v>
@@ -2920,10 +2920,10 @@
         <v>5</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F79">
         <v>40</v>
@@ -2952,10 +2952,10 @@
         <v>5</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F80">
         <v>40</v>
@@ -2984,10 +2984,10 @@
         <v>5</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F81">
         <v>41</v>
@@ -3016,10 +3016,10 @@
         <v>5</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F82">
         <v>41</v>
@@ -3048,10 +3048,10 @@
         <v>5</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F83">
         <v>42</v>
@@ -3080,10 +3080,10 @@
         <v>5</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F84">
         <v>42</v>
@@ -3112,10 +3112,10 @@
         <v>5</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F85">
         <v>43</v>
@@ -3144,10 +3144,10 @@
         <v>5</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E86">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F86">
         <v>43</v>
@@ -3176,10 +3176,10 @@
         <v>6</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F87">
         <v>36</v>
@@ -3208,10 +3208,10 @@
         <v>5</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F88">
         <v>44</v>
@@ -3240,10 +3240,10 @@
         <v>6</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F89">
         <v>37</v>
@@ -3272,10 +3272,10 @@
         <v>5</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F90">
         <v>45</v>
@@ -3304,10 +3304,10 @@
         <v>6</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F91">
         <v>38</v>
@@ -3336,10 +3336,10 @@
         <v>6</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F92">
         <v>38</v>
@@ -3368,10 +3368,10 @@
         <v>6</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F93">
         <v>39</v>
@@ -3400,10 +3400,10 @@
         <v>6</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F94">
         <v>39</v>
@@ -3432,10 +3432,10 @@
         <v>6</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F95">
         <v>40</v>
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F96">
         <v>40</v>
@@ -3496,10 +3496,10 @@
         <v>6</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F97">
         <v>41</v>
@@ -3528,10 +3528,10 @@
         <v>6</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F98">
         <v>41</v>
@@ -3560,10 +3560,10 @@
         <v>6</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F99">
         <v>41</v>
@@ -3592,10 +3592,10 @@
         <v>6</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F100">
         <v>42</v>
@@ -3624,10 +3624,10 @@
         <v>6</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F101">
         <v>42</v>
@@ -3656,10 +3656,10 @@
         <v>6</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F102">
         <v>43</v>
@@ -3688,10 +3688,10 @@
         <v>6</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F103">
         <v>43</v>
@@ -3720,10 +3720,10 @@
         <v>6</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E104">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F104">
         <v>43</v>
@@ -3752,10 +3752,10 @@
         <v>6</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F105">
         <v>44</v>
@@ -3784,10 +3784,10 @@
         <v>6</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F106">
         <v>44</v>
@@ -3816,10 +3816,10 @@
         <v>6</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F107">
         <v>45</v>
@@ -3848,10 +3848,10 @@
         <v>6</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F108">
         <v>45</v>
@@ -3880,10 +3880,10 @@
         <v>6</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E109">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F109">
         <v>46</v>
@@ -3912,10 +3912,10 @@
         <v>6</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F110">
         <v>46</v>
@@ -3944,10 +3944,10 @@
         <v>6</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F111">
         <v>46</v>
@@ -3976,10 +3976,10 @@
         <v>6</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F112">
         <v>47</v>
@@ -4008,10 +4008,10 @@
         <v>6</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E113">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F113">
         <v>47</v>
@@ -4040,10 +4040,10 @@
         <v>6</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F114">
         <v>48</v>
@@ -4072,10 +4072,10 @@
         <v>6</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E115">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F115">
         <v>48</v>
@@ -4104,10 +4104,10 @@
         <v>6</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F116">
         <v>48</v>
@@ -4136,10 +4136,10 @@
         <v>6</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F117">
         <v>49</v>
@@ -4168,10 +4168,10 @@
         <v>6</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E118">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F118">
         <v>49</v>
@@ -4200,10 +4200,10 @@
         <v>6</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F119">
         <v>50</v>
@@ -4232,10 +4232,10 @@
         <v>6</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F120">
         <v>50</v>
@@ -4264,10 +4264,10 @@
         <v>7</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E121">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F121">
         <v>43</v>
@@ -4296,10 +4296,10 @@
         <v>6</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F122">
         <v>51</v>
@@ -4328,10 +4328,10 @@
         <v>6</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F123">
         <v>51</v>
@@ -4360,10 +4360,10 @@
         <v>7</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F124">
         <v>44</v>
@@ -4392,10 +4392,10 @@
         <v>6</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F125">
         <v>52</v>
@@ -4424,10 +4424,10 @@
         <v>7</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F126">
         <v>45</v>
@@ -4456,10 +4456,10 @@
         <v>6</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F127">
         <v>53</v>
@@ -4488,10 +4488,10 @@
         <v>6</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E128">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F128">
         <v>53</v>
@@ -4520,10 +4520,10 @@
         <v>7</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E129">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F129">
         <v>46</v>
@@ -4552,10 +4552,10 @@
         <v>6</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E130">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F130">
         <v>54</v>
@@ -4584,10 +4584,10 @@
         <v>7</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F131">
         <v>47</v>
@@ -4616,10 +4616,10 @@
         <v>7</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E132">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F132">
         <v>47</v>
@@ -4648,10 +4648,10 @@
         <v>7</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F133">
         <v>48</v>
@@ -4680,10 +4680,10 @@
         <v>7</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E134">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F134">
         <v>48</v>
@@ -4712,10 +4712,10 @@
         <v>7</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E135">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F135">
         <v>48</v>
@@ -4744,10 +4744,10 @@
         <v>7</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E136">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F136">
         <v>49</v>
@@ -4776,10 +4776,10 @@
         <v>7</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E137">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F137">
         <v>49</v>
@@ -4808,10 +4808,10 @@
         <v>7</v>
       </c>
       <c r="D138">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E138">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F138">
         <v>49</v>
@@ -4840,10 +4840,10 @@
         <v>7</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E139">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F139">
         <v>50</v>
@@ -4872,10 +4872,10 @@
         <v>7</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E140">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F140">
         <v>50</v>
@@ -4904,10 +4904,10 @@
         <v>7</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E141">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F141">
         <v>51</v>
@@ -4936,10 +4936,10 @@
         <v>7</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E142">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F142">
         <v>34</v>
@@ -4968,10 +4968,10 @@
         <v>7</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E143">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F143">
         <v>51</v>
@@ -5000,10 +5000,10 @@
         <v>7</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F144">
         <v>52</v>
@@ -5032,10 +5032,10 @@
         <v>7</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E145">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F145">
         <v>52</v>
@@ -5064,10 +5064,10 @@
         <v>7</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E146">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F146">
         <v>52</v>
@@ -5096,10 +5096,10 @@
         <v>7</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E147">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F147">
         <v>53</v>
@@ -5128,10 +5128,10 @@
         <v>7</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E148">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F148">
         <v>53</v>
@@ -5160,10 +5160,10 @@
         <v>7</v>
       </c>
       <c r="D149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F149">
         <v>53</v>
@@ -5192,10 +5192,10 @@
         <v>7</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E150">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F150">
         <v>54</v>
@@ -5224,10 +5224,10 @@
         <v>7</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E151">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F151">
         <v>54</v>
@@ -5256,10 +5256,10 @@
         <v>7</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E152">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F152">
         <v>54</v>
@@ -5288,10 +5288,10 @@
         <v>7</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F153">
         <v>55</v>
@@ -5320,10 +5320,10 @@
         <v>7</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E154">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F154">
         <v>55</v>
@@ -5352,10 +5352,10 @@
         <v>7</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E155">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F155">
         <v>56</v>
@@ -5384,10 +5384,10 @@
         <v>7</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E156">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F156">
         <v>37</v>
@@ -5416,10 +5416,10 @@
         <v>7</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E157">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F157">
         <v>56</v>
@@ -5448,10 +5448,10 @@
         <v>7</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F158">
         <v>57</v>
@@ -5480,10 +5480,10 @@
         <v>7</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E159">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F159">
         <v>57</v>
@@ -5512,10 +5512,10 @@
         <v>7</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E160">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F160">
         <v>57</v>
@@ -5544,10 +5544,10 @@
         <v>7</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E161">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F161">
         <v>58</v>
@@ -5576,10 +5576,10 @@
         <v>7</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E162">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F162">
         <v>58</v>
@@ -5608,10 +5608,10 @@
         <v>7</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F163">
         <v>58</v>
@@ -5640,10 +5640,10 @@
         <v>8</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E164">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F164">
         <v>51</v>
@@ -5672,10 +5672,10 @@
         <v>7</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E165">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F165">
         <v>59</v>
@@ -5704,10 +5704,10 @@
         <v>7</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E166">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F166">
         <v>59</v>
@@ -5736,10 +5736,10 @@
         <v>8</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E167">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F167">
         <v>52</v>
@@ -5768,10 +5768,10 @@
         <v>7</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E168">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F168">
         <v>60</v>
@@ -5800,10 +5800,10 @@
         <v>8</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E169">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F169">
         <v>53</v>
@@ -5832,10 +5832,10 @@
         <v>8</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E170">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F170">
         <v>53</v>
@@ -5864,10 +5864,10 @@
         <v>7</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E171">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F171">
         <v>61</v>
@@ -5896,10 +5896,10 @@
         <v>8</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E172">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F172">
         <v>54</v>
@@ -5928,10 +5928,10 @@
         <v>8</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E173">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F173">
         <v>54</v>
@@ -5960,10 +5960,10 @@
         <v>7</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E174">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F174">
         <v>62</v>
@@ -5992,10 +5992,10 @@
         <v>8</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E175">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F175">
         <v>55</v>
@@ -6024,10 +6024,10 @@
         <v>8</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E176">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F176">
         <v>55</v>
@@ -6056,10 +6056,10 @@
         <v>7</v>
       </c>
       <c r="D177">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E177">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F177">
         <v>63</v>
@@ -6088,10 +6088,10 @@
         <v>8</v>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E178">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F178">
         <v>56</v>
@@ -6120,10 +6120,10 @@
         <v>8</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E179">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F179">
         <v>56</v>
@@ -6152,10 +6152,10 @@
         <v>8</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E180">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F180">
         <v>56</v>
@@ -6184,10 +6184,10 @@
         <v>8</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E181">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F181">
         <v>57</v>
@@ -6216,10 +6216,10 @@
         <v>8</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E182">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F182">
         <v>57</v>
@@ -6248,10 +6248,10 @@
         <v>8</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E183">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F183">
         <v>57</v>
@@ -6280,10 +6280,10 @@
         <v>8</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E184">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F184">
         <v>58</v>
@@ -6312,10 +6312,10 @@
         <v>8</v>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E185">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F185">
         <v>58</v>
@@ -6344,10 +6344,10 @@
         <v>8</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F186">
         <v>58</v>
@@ -6376,10 +6376,10 @@
         <v>8</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F187">
         <v>59</v>
@@ -6408,10 +6408,10 @@
         <v>8</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E188">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F188">
         <v>59</v>
@@ -6440,10 +6440,10 @@
         <v>8</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F189">
         <v>59</v>
@@ -6472,10 +6472,10 @@
         <v>8</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E190">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F190">
         <v>60</v>
@@ -6504,10 +6504,10 @@
         <v>8</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E191">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F191">
         <v>60</v>
@@ -6536,10 +6536,10 @@
         <v>8</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E192">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F192">
         <v>60</v>
@@ -6568,10 +6568,10 @@
         <v>8</v>
       </c>
       <c r="D193">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E193">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F193">
         <v>61</v>
@@ -6600,10 +6600,10 @@
         <v>8</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E194">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F194">
         <v>61</v>
@@ -6632,10 +6632,10 @@
         <v>8</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E195">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F195">
         <v>61</v>
@@ -6664,10 +6664,10 @@
         <v>8</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E196">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F196">
         <v>61</v>
@@ -6696,10 +6696,10 @@
         <v>8</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E197">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F197">
         <v>62</v>
@@ -6728,10 +6728,10 @@
         <v>8</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E198">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F198">
         <v>62</v>
@@ -6760,10 +6760,10 @@
         <v>8</v>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E199">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F199">
         <v>62</v>
@@ -6792,10 +6792,10 @@
         <v>8</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E200">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F200">
         <v>63</v>
@@ -6824,10 +6824,10 @@
         <v>8</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E201">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F201">
         <v>63</v>
@@ -6856,10 +6856,10 @@
         <v>8</v>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E202">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F202">
         <v>63</v>
@@ -6888,10 +6888,10 @@
         <v>8</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E203">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F203">
         <v>64</v>
@@ -6920,10 +6920,10 @@
         <v>8</v>
       </c>
       <c r="D204">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E204">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F204">
         <v>64</v>
@@ -6952,10 +6952,10 @@
         <v>8</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E205">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F205">
         <v>64</v>
@@ -6984,10 +6984,10 @@
         <v>9</v>
       </c>
       <c r="D206">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E206">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F206">
         <v>57</v>
@@ -7016,10 +7016,10 @@
         <v>8</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E207">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F207">
         <v>65</v>
@@ -7048,10 +7048,10 @@
         <v>8</v>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E208">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F208">
         <v>65</v>
@@ -7080,10 +7080,10 @@
         <v>9</v>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E209">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F209">
         <v>58</v>
@@ -7112,10 +7112,10 @@
         <v>8</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E210">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F210">
         <v>66</v>
@@ -7144,10 +7144,10 @@
         <v>8</v>
       </c>
       <c r="D211">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E211">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F211">
         <v>66</v>
@@ -7176,10 +7176,10 @@
         <v>8</v>
       </c>
       <c r="D212">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E212">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F212">
         <v>66</v>
@@ -7208,10 +7208,10 @@
         <v>9</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E213">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F213">
         <v>59</v>
@@ -7240,10 +7240,10 @@
         <v>8</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E214">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F214">
         <v>67</v>
@@ -7272,10 +7272,10 @@
         <v>8</v>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F215">
         <v>67</v>
@@ -7304,10 +7304,10 @@
         <v>9</v>
       </c>
       <c r="D216">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E216">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F216">
         <v>60</v>
@@ -7336,10 +7336,10 @@
         <v>8</v>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E217">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F217">
         <v>68</v>
@@ -7368,10 +7368,10 @@
         <v>8</v>
       </c>
       <c r="D218">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E218">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F218">
         <v>68</v>
@@ -7400,10 +7400,10 @@
         <v>9</v>
       </c>
       <c r="D219">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E219">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F219">
         <v>61</v>
@@ -7432,10 +7432,10 @@
         <v>9</v>
       </c>
       <c r="D220">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E220">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F220">
         <v>61</v>
@@ -7464,10 +7464,10 @@
         <v>8</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E221">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F221">
         <v>69</v>
@@ -7496,10 +7496,10 @@
         <v>9</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E222">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F222">
         <v>62</v>
@@ -7528,10 +7528,10 @@
         <v>9</v>
       </c>
       <c r="D223">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E223">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F223">
         <v>62</v>
@@ -7560,10 +7560,10 @@
         <v>9</v>
       </c>
       <c r="D224">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E224">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F224">
         <v>62</v>
@@ -7592,10 +7592,10 @@
         <v>9</v>
       </c>
       <c r="D225">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E225">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F225">
         <v>63</v>
@@ -7624,10 +7624,10 @@
         <v>9</v>
       </c>
       <c r="D226">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E226">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F226">
         <v>63</v>
@@ -7656,10 +7656,10 @@
         <v>9</v>
       </c>
       <c r="D227">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E227">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F227">
         <v>63</v>
@@ -7688,10 +7688,10 @@
         <v>8</v>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E228">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F228">
         <v>71</v>
@@ -7720,10 +7720,10 @@
         <v>9</v>
       </c>
       <c r="D229">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E229">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F229">
         <v>64</v>
@@ -7752,10 +7752,10 @@
         <v>9</v>
       </c>
       <c r="D230">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E230">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F230">
         <v>64</v>
@@ -7784,10 +7784,10 @@
         <v>9</v>
       </c>
       <c r="D231">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E231">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F231">
         <v>64</v>
@@ -7816,10 +7816,10 @@
         <v>9</v>
       </c>
       <c r="D232">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E232">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F232">
         <v>65</v>
@@ -7848,10 +7848,10 @@
         <v>9</v>
       </c>
       <c r="D233">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E233">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F233">
         <v>65</v>
@@ -7880,10 +7880,10 @@
         <v>9</v>
       </c>
       <c r="D234">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E234">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F234">
         <v>65</v>
@@ -7912,10 +7912,10 @@
         <v>9</v>
       </c>
       <c r="D235">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E235">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F235">
         <v>66</v>
@@ -7944,10 +7944,10 @@
         <v>9</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E236">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F236">
         <v>66</v>
@@ -7976,10 +7976,10 @@
         <v>9</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E237">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F237">
         <v>66</v>
@@ -8008,10 +8008,10 @@
         <v>9</v>
       </c>
       <c r="D238">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E238">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F238">
         <v>66</v>
@@ -8040,10 +8040,10 @@
         <v>9</v>
       </c>
       <c r="D239">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E239">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F239">
         <v>67</v>
@@ -8072,10 +8072,10 @@
         <v>9</v>
       </c>
       <c r="D240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F240">
         <v>67</v>
@@ -8104,10 +8104,10 @@
         <v>9</v>
       </c>
       <c r="D241">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E241">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F241">
         <v>67</v>
@@ -8136,10 +8136,10 @@
         <v>9</v>
       </c>
       <c r="D242">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E242">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F242">
         <v>67</v>
@@ -8168,10 +8168,10 @@
         <v>9</v>
       </c>
       <c r="D243">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E243">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F243">
         <v>68</v>
@@ -8200,10 +8200,10 @@
         <v>9</v>
       </c>
       <c r="D244">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E244">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F244">
         <v>68</v>
@@ -8232,10 +8232,10 @@
         <v>9</v>
       </c>
       <c r="D245">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E245">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F245">
         <v>68</v>
@@ -8264,10 +8264,10 @@
         <v>9</v>
       </c>
       <c r="D246">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E246">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F246">
         <v>69</v>
@@ -8296,10 +8296,10 @@
         <v>9</v>
       </c>
       <c r="D247">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E247">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F247">
         <v>69</v>
@@ -8328,10 +8328,10 @@
         <v>9</v>
       </c>
       <c r="D248">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E248">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F248">
         <v>69</v>
@@ -8360,10 +8360,10 @@
         <v>9</v>
       </c>
       <c r="D249">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E249">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F249">
         <v>69</v>
@@ -8392,10 +8392,10 @@
         <v>9</v>
       </c>
       <c r="D250">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E250">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F250">
         <v>70</v>
@@ -8424,10 +8424,10 @@
         <v>9</v>
       </c>
       <c r="D251">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E251">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F251">
         <v>70</v>
@@ -8456,10 +8456,10 @@
         <v>9</v>
       </c>
       <c r="D252">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E252">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F252">
         <v>70</v>
@@ -8488,10 +8488,10 @@
         <v>9</v>
       </c>
       <c r="D253">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E253">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F253">
         <v>71</v>
@@ -8520,10 +8520,10 @@
         <v>9</v>
       </c>
       <c r="D254">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E254">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F254">
         <v>71</v>
@@ -8552,10 +8552,10 @@
         <v>9</v>
       </c>
       <c r="D255">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E255">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F255">
         <v>71</v>
@@ -8584,10 +8584,10 @@
         <v>9</v>
       </c>
       <c r="D256">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E256">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F256">
         <v>71</v>
@@ -8616,10 +8616,10 @@
         <v>9</v>
       </c>
       <c r="D257">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E257">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F257">
         <v>72</v>
@@ -8648,10 +8648,10 @@
         <v>9</v>
       </c>
       <c r="D258">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E258">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F258">
         <v>72</v>
@@ -8680,10 +8680,10 @@
         <v>9</v>
       </c>
       <c r="D259">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E259">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F259">
         <v>72</v>
@@ -8712,10 +8712,10 @@
         <v>9</v>
       </c>
       <c r="D260">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E260">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F260">
         <v>72</v>
@@ -8744,10 +8744,10 @@
         <v>9</v>
       </c>
       <c r="D261">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E261">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F261">
         <v>73</v>
@@ -8776,10 +8776,10 @@
         <v>10</v>
       </c>
       <c r="D262">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E262">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F262">
         <v>66</v>
@@ -8808,10 +8808,10 @@
         <v>9</v>
       </c>
       <c r="D263">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E263">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F263">
         <v>73</v>
@@ -8840,10 +8840,10 @@
         <v>10</v>
       </c>
       <c r="D264">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E264">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F264">
         <v>66</v>
@@ -8872,10 +8872,10 @@
         <v>9</v>
       </c>
       <c r="D265">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E265">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F265">
         <v>74</v>
@@ -8904,10 +8904,10 @@
         <v>9</v>
       </c>
       <c r="D266">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E266">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F266">
         <v>74</v>
@@ -8936,10 +8936,10 @@
         <v>9</v>
       </c>
       <c r="D267">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E267">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F267">
         <v>74</v>
@@ -8968,10 +8968,10 @@
         <v>10</v>
       </c>
       <c r="D268">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E268">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F268">
         <v>67</v>
@@ -9000,10 +9000,10 @@
         <v>9</v>
       </c>
       <c r="D269">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E269">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F269">
         <v>75</v>
@@ -9032,10 +9032,10 @@
         <v>9</v>
       </c>
       <c r="D270">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E270">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F270">
         <v>75</v>
@@ -9064,10 +9064,10 @@
         <v>10</v>
       </c>
       <c r="D271">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E271">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F271">
         <v>68</v>
@@ -9096,10 +9096,10 @@
         <v>10</v>
       </c>
       <c r="D272">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E272">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F272">
         <v>68</v>
@@ -9128,10 +9128,10 @@
         <v>9</v>
       </c>
       <c r="D273">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E273">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F273">
         <v>76</v>
@@ -9160,10 +9160,10 @@
         <v>9</v>
       </c>
       <c r="D274">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E274">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F274">
         <v>76</v>
@@ -9192,10 +9192,10 @@
         <v>10</v>
       </c>
       <c r="D275">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E275">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F275">
         <v>69</v>
@@ -9224,10 +9224,10 @@
         <v>10</v>
       </c>
       <c r="D276">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E276">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F276">
         <v>69</v>
@@ -9256,10 +9256,10 @@
         <v>9</v>
       </c>
       <c r="D277">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E277">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F277">
         <v>77</v>
@@ -9288,10 +9288,10 @@
         <v>9</v>
       </c>
       <c r="D278">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E278">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F278">
         <v>77</v>
@@ -9320,10 +9320,10 @@
         <v>10</v>
       </c>
       <c r="D279">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E279">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F279">
         <v>70</v>
@@ -9352,10 +9352,10 @@
         <v>10</v>
       </c>
       <c r="D280">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E280">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F280">
         <v>70</v>
@@ -9384,10 +9384,10 @@
         <v>10</v>
       </c>
       <c r="D281">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E281">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F281">
         <v>71</v>
@@ -9416,10 +9416,10 @@
         <v>10</v>
       </c>
       <c r="D282">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E282">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F282">
         <v>71</v>
@@ -9448,10 +9448,10 @@
         <v>10</v>
       </c>
       <c r="D283">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E283">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F283">
         <v>71</v>
@@ -9480,10 +9480,10 @@
         <v>10</v>
       </c>
       <c r="D284">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E284">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F284">
         <v>71</v>
@@ -9512,10 +9512,10 @@
         <v>9</v>
       </c>
       <c r="D285">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E285">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F285">
         <v>79</v>
@@ -9544,10 +9544,10 @@
         <v>10</v>
       </c>
       <c r="D286">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E286">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F286">
         <v>72</v>
@@ -9576,10 +9576,10 @@
         <v>10</v>
       </c>
       <c r="D287">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E287">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F287">
         <v>72</v>
@@ -9608,10 +9608,10 @@
         <v>10</v>
       </c>
       <c r="D288">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E288">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F288">
         <v>72</v>
@@ -9640,10 +9640,10 @@
         <v>10</v>
       </c>
       <c r="D289">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E289">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F289">
         <v>73</v>
@@ -9672,10 +9672,10 @@
         <v>10</v>
       </c>
       <c r="D290">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E290">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F290">
         <v>73</v>
@@ -9704,10 +9704,10 @@
         <v>10</v>
       </c>
       <c r="D291">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E291">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F291">
         <v>73</v>
@@ -9736,10 +9736,10 @@
         <v>10</v>
       </c>
       <c r="D292">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E292">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F292">
         <v>73</v>
@@ -9768,10 +9768,10 @@
         <v>10</v>
       </c>
       <c r="D293">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E293">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F293">
         <v>74</v>
@@ -9800,10 +9800,10 @@
         <v>10</v>
       </c>
       <c r="D294">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E294">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F294">
         <v>74</v>
@@ -9832,10 +9832,10 @@
         <v>10</v>
       </c>
       <c r="D295">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E295">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F295">
         <v>74</v>
@@ -9864,10 +9864,10 @@
         <v>10</v>
       </c>
       <c r="D296">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E296">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F296">
         <v>74</v>
@@ -9896,10 +9896,10 @@
         <v>10</v>
       </c>
       <c r="D297">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E297">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F297">
         <v>75</v>
@@ -9928,10 +9928,10 @@
         <v>10</v>
       </c>
       <c r="D298">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E298">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F298">
         <v>75</v>
@@ -9960,10 +9960,10 @@
         <v>10</v>
       </c>
       <c r="D299">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E299">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F299">
         <v>75</v>
@@ -9992,10 +9992,10 @@
         <v>10</v>
       </c>
       <c r="D300">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E300">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F300">
         <v>75</v>
